--- a/sampledata/tutorial05/store.xlsx
+++ b/sampledata/tutorial05/store.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.abe/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FC0CE0-7C4D-BA4C-8705-E8E657AF3A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A761CD-DD05-CC47-BBF4-5FE08E4CFA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="3060" windowWidth="28300" windowHeight="17440" xr2:uid="{B0FDD6A8-AE89-D746-90CB-47DDCB84CA32}"/>
+    <workbookView xWindow="4360" yWindow="2360" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{B0FDD6A8-AE89-D746-90CB-47DDCB84CA32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="売り上げ" sheetId="1" r:id="rId1"/>
+    <sheet name="社員数" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>店舗名</t>
   </si>
@@ -60,6 +61,13 @@
   </si>
   <si>
     <t>大手町店</t>
+  </si>
+  <si>
+    <t>社員数</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シャインスウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -443,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF6E09C-C00C-704F-8CCE-EF24C3C67AA5}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -537,4 +545,68 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4106843-CDE5-9849-8BEB-6F3B166389A6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>